--- a/biology/Zoologie/Faux-mars/Faux-mars.xlsx
+++ b/biology/Zoologie/Faux-mars/Faux-mars.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thaleropis ionia
 Le Faux-mars (Thaleropis ionia) est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Apaturinae. Elle est l'unique représentante du genre monotypique Thaleropis.
@@ -512,11 +524,13 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En français : le Faux-mars[réf. souhaitée].
-En anglais : Ionian Emperor[1]
-En turc : Anadolu Şehzadesi[1]</t>
+En anglais : Ionian Emperor
+En turc : Anadolu Şehzadesi</t>
         </is>
       </c>
     </row>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago de Thaleropis ionia est un papillon de taille moyenne. 
 Le dessus des ailes est brun-noir largement envahi de bandes orangées, à reflets violets chez le mâle, tandis que le revers des ailes présente une alternance de dessins bruns et ocres.
@@ -579,12 +595,15 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phénologie
-L'espèce produit deux générations par an.
-Les papillons sont visibles de juin à septembre[2]. 
-Selon certaines sources, la femelle adulte hiverne et pond ses œufs au printemps[2] ; selon d'autres, la chrysalide hiverne[3].
-Plantes hôtes
-Les plantes hôtes sont des micocouliers (Celtis spp.), notamment Celtis tournefortii et Celtis glabrata[4],[3]. Certains auteurs citent aussi les saules (Salix spp.)[2].
+          <t>Phénologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce produit deux générations par an.
+Les papillons sont visibles de juin à septembre. 
+Selon certaines sources, la femelle adulte hiverne et pond ses œufs au printemps ; selon d'autres, la chrysalide hiverne.
 </t>
         </is>
       </c>
@@ -610,14 +629,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Distribution et biotopes</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce est présente en Turquie, en Arménie, Azerbaïdjan, dans le Nord-Est de l'Irak et le Nord-Ouest de l'Iran[2],[3],[4],[5]. Concernant l'Europe, un unique mâle a été capturé en Grèce en 1986 sur l'île de Kastellórizo, mais il ne s'agissait apparemment que d'un exemplaire erratique venu de la Turquie voisine[2].
-Les habitats sont les forêts claires, les plaines d'inondation et les bords de cours d'eau, à proximité de micocouliers ou de saules[3],[2].
-Les femelles restent dans les frondaisons, tandis que les mâles viennent souvent près des flaques d'eau[3].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des micocouliers (Celtis spp.), notamment Celtis tournefortii et Celtis glabrata,. Certains auteurs citent aussi les saules (Salix spp.).
 </t>
         </is>
       </c>
@@ -643,13 +666,50 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Distribution et biotopes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en Turquie, en Arménie, Azerbaïdjan, dans le Nord-Est de l'Irak et le Nord-Ouest de l'Iran. Concernant l'Europe, un unique mâle a été capturé en Grèce en 1986 sur l'île de Kastellórizo, mais il ne s'agissait apparemment que d'un exemplaire erratique venu de la Turquie voisine.
+Les habitats sont les forêts claires, les plaines d'inondation et les bords de cours d'eau, à proximité de micocouliers ou de saules,.
+Les femelles restent dans les frondaisons, tandis que les mâles viennent souvent près des flaques d'eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faux-mars</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux-mars</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce actuellement appelée Thaleropis ionia a été décrite par Gotthelf Fischer von Waldheim et Eduard Friedrich von Eversmann en 1851, sous le nom initial de Vanessa ionia[4].
-Classée dans la famille des Nymphalidae et la sous-famille des Apaturinae, elle est l'espèce type et unique espèce du genre monotypique Thaleropis, décrit en 1871 par l'entomologiste allemand Otto Staudinger[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce actuellement appelée Thaleropis ionia a été décrite par Gotthelf Fischer von Waldheim et Eduard Friedrich von Eversmann en 1851, sous le nom initial de Vanessa ionia.
+Classée dans la famille des Nymphalidae et la sous-famille des Apaturinae, elle est l'espèce type et unique espèce du genre monotypique Thaleropis, décrit en 1871 par l'entomologiste allemand Otto Staudinger.
 </t>
         </is>
       </c>
